--- a/Analisis de Documentaciones.xlsx
+++ b/Analisis de Documentaciones.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,60 +407,120 @@
         <v>nombre</v>
       </c>
       <c r="B1" t="str">
-        <v>Título de propiedad,cédula verde o contrato de alquiler de los vehículos y/o equipos especiales (con firma y sello de las partes) [Presentación única]</v>
+        <v>Constancia de Inscripción en Ingresos Brutos IIBB o Convenio Multilateral (solo para empleados subcontratados)</v>
       </c>
       <c r="C1" t="str">
-        <v>Póliza de Seguro con cláusula de subrogación a favor de Litio Minera Argentina SA, Ganfeng Litio Argentina SA y Lithea INC (Límites RC SSN) [12-01-2024]</v>
+        <v>DDJJ Ingresos Brutos o Convenio Multilateral y Comprobante de pago de Corresponder (solo para empleados subcontratados) [NC]</v>
       </c>
       <c r="D1" t="str">
-        <v>Comprobante de pago Seguro  del Vehículo [12-11-2023]</v>
+        <v>Último pago de autónomo o monotributista. (solo para empleados subcontratados) [NC]</v>
       </c>
       <c r="E1" t="str">
-        <v>Verificación Técnica vehicular o RTO [04-01-2024]</v>
+        <v>Póliza de Accidentes Personales con cláusula de no repetición Litio Minera Argentina SA, Ganfeng Litio Argentina SA y Lithea INC (sumas mínimas exigid</v>
       </c>
       <c r="F1" t="str">
-        <v>Declaración Jurada Medidas de Seguridad - Ingreso vehículos [Presentación única]</v>
+        <v>Comprobante de pago de Póliza de Accidentes Personales (solo para empleados subcontratados)</v>
       </c>
       <c r="G1" t="str">
-        <v>Habilitación de la unidad como transporte de personal (en caso de corresponder) [24-11-2023]</v>
+        <v>Facturas emitidas (solo para empleados subcontratados) [NC]</v>
       </c>
       <c r="H1" t="str">
-        <v>Póliza de Seguro con cláusula de subrogación a favor de Litio Minera Argentina SA, Ganfeng Litio Argentina SA y Lithea INC (Límites RC SSN) [02-02-2024]</v>
+        <v>Fotocopia de DNI o Pasaporte y Fotocopia de la Constancia de CUIL</v>
       </c>
       <c r="I1" t="str">
-        <v>Comprobante de pago Seguro  del Vehículo [27-11-2023]</v>
+        <v>Fotocopia  de Examen Médico completo donde conste que es apto para el trabajo designado, trabajo a 4.000 msnm.</v>
       </c>
       <c r="J1" t="str">
-        <v>Verificación Técnica vehicular o RTO [10-10-2024]</v>
+        <v>Constancia de entrega al trabajador de ropa de trabajo y/o elementos de seguridad (sin importar su condición de contratación)</v>
       </c>
       <c r="K1" t="str">
-        <v>Habilitación de la unidad como transporte de personal (en caso de corresponder) [23-07-2024]</v>
+        <v>Induccion de Seguridad, Salud y Ambiente (SSyA)</v>
       </c>
       <c r="L1" t="str">
-        <v>Título de propiedad,cédula verde o contrato de alquiler de los vehículos y/o equipos especiales (con firma y sello de las partes)</v>
+        <v>Licencia Nacional de conducir por Autoridad Competente. (solo para empleados conductores, sin importar su condición de contratación)</v>
       </c>
       <c r="M1" t="str">
-        <v>Póliza de Seguro con cláusula de subrogación a favor de Litio Minera Argentina SA, Ganfeng Litio Argentina SA y Lithea INC (Límites RC SSN) [10-10-2023]</v>
+        <v>DDJJ Ingresos Brutos o Convenio Multilateral y Comprobante de pago de Corresponder (solo para empleados subcontratados)</v>
       </c>
       <c r="N1" t="str">
-        <v>Comprobante de pago Seguro  del Vehículo [31-08-2023]</v>
+        <v>Último pago de autónomo o monotributista. (solo para empleados subcontratados)</v>
       </c>
       <c r="O1" t="str">
-        <v>Verificación Técnica vehicular o RTO [23-11-2023]</v>
+        <v>Facturas emitidas (solo para empleados subcontratados)</v>
       </c>
       <c r="P1" t="str">
-        <v>Declaración Jurada Medidas de Seguridad - Ingreso vehículos</v>
+        <v>Constancia de Inscripción en Ingresos Brutos IIBB o Convenio Multilateral (solo para empleados subcontratados) [Presentación única]</v>
       </c>
       <c r="Q1" t="str">
-        <v>Habilitación de la unidad como transporte de personal (en caso de corresponder)</v>
+        <v>DDJJ Ingresos Brutos o Convenio Multilateral y Comprobante de pago de Corresponder (solo para empleados subcontratados) [26-11-2023]</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Último pago de autónomo o monotributista. (solo para empleados subcontratados) [26-11-2023]</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Póliza de Accidentes Personales con cláusula de no repetición Litio Minera Argentina SA, Ganfeng Litio Argentina SA y Lithea INC (sumas mínimas exigid [26-06-2024]</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Comprobante de pago de Póliza de Accidentes Personales (solo para empleados subcontratados) [28-11-2023]</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Facturas emitidas (solo para empleados subcontratados) [26-11-2023]</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Fotocopia de DNI o Pasaporte y Fotocopia de la Constancia de CUIL [Presentación única]</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Fotocopia  de Examen Médico completo donde conste que es apto para el trabajo designado, trabajo a 4.000 msnm. [27-06-2024]</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Constancia de entrega al trabajador de ropa de trabajo y/o elementos de seguridad (sin importar su condición de contratación) [01-06-2024]</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Induccion de Seguridad, Salud y Ambiente (SSyA) [27-06-2024]</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Licencia Nacional de conducir por Autoridad Competente. (solo para empleados conductores, sin importar su condición de contratación) [18-01-2025]</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>DDJJ Ingresos Brutos o Convenio Multilateral y Comprobante de pago de Corresponder (solo para empleados subcontratados) [26-08-2023]</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Último pago de autónomo o monotributista. (solo para empleados subcontratados) [26-08-2023]</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Facturas emitidas (solo para empleados subcontratados) [26-09-2023]</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Fotocopia  de Examen Médico completo donde conste que es apto para el trabajo designado, trabajo a 4.000 msnm. [02-05-2024]</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Licencia Nacional de conducir por Autoridad Competente. (solo para empleados conductores, sin importar su condición de contratación) [17-08-2027]</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Fotocopia  de Examen Médico completo donde conste que es apto para el trabajo designado, trabajo a 4.000 msnm. [26-06-2024]</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Licencia Nacional de conducir por Autoridad Competente. (solo para empleados conductores, sin importar su condición de contratación) [26-04-2024]</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>DDJJ Ingresos Brutos o Convenio Multilateral y Comprobante de pago de Corresponder (solo para empleados subcontratados) [26-09-2023]</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>Último pago de autónomo o monotributista. (solo para empleados subcontratados) [26-09-2023]</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Fotocopia  de Examen Médico completo donde conste que es apto para el trabajo designado, trabajo a 4.000 msnm. [28-06-2024]</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Licencia Nacional de conducir por Autoridad Competente. (solo para empleados conductores, sin importar su condición de contratación) [09-11-2026]</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MERCEDES BENZ SPRINTER 515 CDI - (AA987YS)</v>
+        <v>ALONSO, OSCAR IGNACIO - (20-35044311-9)</v>
       </c>
       <c r="B2" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="C2" t="str">
         <v>Aprobado</v>
@@ -469,28 +529,28 @@
         <v>Aprobado</v>
       </c>
       <c r="E2" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="F2" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="G2" t="str">
         <v>Aprobado</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="M2" t="str">
         <v/>
@@ -505,15 +565,75 @@
         <v/>
       </c>
       <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <v/>
+      </c>
+      <c r="AG2" t="str">
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <v/>
+      </c>
+      <c r="AI2" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" t="str">
+        <v/>
+      </c>
+      <c r="AK2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NISSAN FRONTIER CD SE 2.3 D 4X4 MT - (AD727QO)</v>
+        <v>BURGOS, WALTER MARIO - (20-23653588-7)</v>
       </c>
       <c r="B3" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -522,48 +642,108 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="F3" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="G3" t="str">
         <v/>
       </c>
       <c r="H3" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="I3" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="J3" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="K3" t="str">
-        <v>Aprobado</v>
+        <v>No esta presentada</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="O3" t="str">
-        <v/>
+        <v>No esta presentada</v>
       </c>
       <c r="P3" t="str">
         <v/>
       </c>
       <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
+      </c>
+      <c r="AK3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>TOYOTA HILUX - (AA100RO)</v>
+        <v>COPA, JUAN MARCELO - (20-28514694-2)</v>
       </c>
       <c r="B4" t="str">
         <v/>
@@ -596,27 +776,426 @@
         <v/>
       </c>
       <c r="L4" t="str">
-        <v>No esta presentada</v>
+        <v/>
       </c>
       <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="T4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="U4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="V4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="W4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="X4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <v/>
+      </c>
+      <c r="AK4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>GASPAR RAFUL, LUIS MATIAS - (20-31733287-5)</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="T5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
         <v>Vencida</v>
       </c>
-      <c r="N4" t="str">
+      <c r="AB5" t="str">
         <v>Vencida</v>
       </c>
-      <c r="O4" t="str">
-        <v>Aprobado</v>
-      </c>
-      <c r="P4" t="str">
-        <v>No esta presentada</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>No esta presentada</v>
+      <c r="AC5" t="str">
+        <v>Vencida</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <v/>
+      </c>
+      <c r="AJ5" t="str">
+        <v/>
+      </c>
+      <c r="AK5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>GOMEZ, PABLO ANTONIO - (20-24148663-0)</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="T6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="U6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="V6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="AG6" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="AH6" t="str">
+        <v/>
+      </c>
+      <c r="AI6" t="str">
+        <v/>
+      </c>
+      <c r="AJ6" t="str">
+        <v/>
+      </c>
+      <c r="AK6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ROJAS, RAMON - (20-13578743-5)</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="T7" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <v>Vencida</v>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <v/>
+      </c>
+      <c r="AH7" t="str">
+        <v>Vencida</v>
+      </c>
+      <c r="AI7" t="str">
+        <v>Vencida</v>
+      </c>
+      <c r="AJ7" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="AK7" t="str">
+        <v>Aprobado</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK7"/>
   </ignoredErrors>
 </worksheet>
 </file>